--- a/AccController/AccController.Web/Content/templates/export/result/ais/CapNhatTTUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/export/result/ais/CapNhatTTUser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\import\ais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\export\result\ais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="CapNhatTTUser" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatTTUser!$A$5:$E$5</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">CapNhatTTUser!$A$5:$H$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Mức ưu tiên</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>{Field:"Jobtitle"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>{Field:"Id"}</t>
+  </si>
+  <si>
+    <t>Kq</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -4155,13 +4167,15 @@
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1492">
     <cellStyle name="          _x000a__x000a_shell=progman.exe_x000a__x000a_m" xfId="97"/>
@@ -5957,10 +5971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+  <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5969,15 +5983,15 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5993,8 +6007,17 @@
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6008,6 +6031,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
